--- a/WriteActivity/Resources/Actividad-escritura.xlsx
+++ b/WriteActivity/Resources/Actividad-escritura.xlsx
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Eres tanta gente, que dime</t>
   </si>
@@ -143,6 +143,48 @@
   </si>
   <si>
     <t>Nivel</t>
+  </si>
+  <si>
+    <t>Frase traducida</t>
+  </si>
+  <si>
+    <t>Traduccion 1</t>
+  </si>
+  <si>
+    <t>Traduccion 2</t>
+  </si>
+  <si>
+    <t>Traduccion 3</t>
+  </si>
+  <si>
+    <t>Traduccion 4</t>
+  </si>
+  <si>
+    <t>Traduccion 5</t>
+  </si>
+  <si>
+    <t>Traduccion 6</t>
+  </si>
+  <si>
+    <t>Traduccion 7</t>
+  </si>
+  <si>
+    <t>Traduccion 8</t>
+  </si>
+  <si>
+    <t>Traduccion 9</t>
+  </si>
+  <si>
+    <t>Traduccion 10</t>
+  </si>
+  <si>
+    <t>Traduccion 11</t>
+  </si>
+  <si>
+    <t>Traduccion 12</t>
+  </si>
+  <si>
+    <t>Traduccion 13</t>
   </si>
 </sst>
 </file>
@@ -212,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -224,6 +266,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,9 +579,10 @@
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -548,8 +592,11 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -559,8 +606,11 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -568,8 +618,11 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -577,8 +630,11 @@
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -586,8 +642,11 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -597,8 +656,11 @@
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -607,6 +669,107 @@
       </c>
       <c r="C7" s="6" t="s">
         <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
